--- a/Assets/StreamingAssets/20250302.xlsx
+++ b/Assets/StreamingAssets/20250302.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derrick\Documents\GitHub\Chemical2024\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CD629F-4BDC-4175-BAD8-416A1C1BB814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623C8409-EE1B-479F-8DAA-5F7974221BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15370" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34860" yWindow="1995" windowWidth="28800" windowHeight="15375" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="單元一 教學" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="單元六 教學" sheetId="11" r:id="rId11"/>
     <sheet name="單元六 測驗" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
   <si>
     <t>學號</t>
   </si>
@@ -526,6 +526,24 @@
   </si>
   <si>
     <t>6-3次數</t>
+  </si>
+  <si>
+    <t>2025/3/2 下午 10:35:05</t>
+  </si>
+  <si>
+    <t>2025/3/2 下午 10:35:19</t>
+  </si>
+  <si>
+    <t>2025/3/2 下午 10:35:20</t>
+  </si>
+  <si>
+    <t>2025/3/2 下午 10:35:37</t>
+  </si>
+  <si>
+    <t>2025/3/2 下午 10:35:38</t>
+  </si>
+  <si>
+    <t>2025/3/2 下午 10:35:53</t>
   </si>
   <si>
     <t>6-1答案</t>
@@ -577,8 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -604,10 +621,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -948,63 +963,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1016,98 +1030,133 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>163</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1119,124 +1168,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="E1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="F1" t="s">
         <v>174</v>
       </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1248,48 +1296,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1301,63 +1348,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1369,48 +1415,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1422,63 +1467,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1490,48 +1534,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1543,169 +1586,168 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>110</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
         <v>111</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1713,92 +1755,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1810,62 +1851,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>145</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>